--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResults.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResults.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Surname</t>
   </si>
@@ -99,7 +99,7 @@
     <t>Uncredit</t>
   </si>
   <si>
-    <t>5</t>
+    <t>3</t>
   </si>
   <si>
     <t>Ivanova</t>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>Ilya</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Denisov</t>
@@ -1050,18 +1047,18 @@
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>10</v>
@@ -1078,13 +1075,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>63</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>10</v>

--- a/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResults.xlsx
+++ b/SessionLibrary/SessionLIbraryExcel.Tests/bin/Debug/SessionResults.xlsx
@@ -59,8 +59,7 @@
     <t>8</t>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-Physics</t>
+    <t>Physics</t>
   </si>
   <si>
     <t>9</t>
